--- a/data/2020-08-04_scores.xlsx
+++ b/data/2020-08-04_scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1ed4f22eb4e08c7/Documents/projects/minaki-forest-golf/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13059" documentId="11_F25DC773A252ABDACC104881591E4C585ADE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{74828898-39F6-406B-ADD4-73656B577A7A}"/>
+  <xr:revisionPtr revIDLastSave="13614" documentId="11_F25DC773A252ABDACC104881591E4C585ADE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22272A0D-3D3A-43A4-9157-B3D8FF85D91A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="96">
   <si>
     <t>year</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>serena</t>
+  </si>
+  <si>
+    <t>kate</t>
   </si>
 </sst>
 </file>
@@ -647,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1187"/>
+  <dimension ref="A1:L1236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1186" sqref="A1186"/>
+      <pane ySplit="1" topLeftCell="A1206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1237" sqref="D1237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45741,6 +45744,1868 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1188" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1188">
+        <v>2019</v>
+      </c>
+      <c r="B1188">
+        <v>363</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1188">
+        <v>2</v>
+      </c>
+      <c r="E1188">
+        <v>4</v>
+      </c>
+      <c r="F1188">
+        <v>3</v>
+      </c>
+      <c r="G1188">
+        <v>3</v>
+      </c>
+      <c r="H1188">
+        <v>2</v>
+      </c>
+      <c r="I1188">
+        <v>3</v>
+      </c>
+      <c r="J1188">
+        <v>3</v>
+      </c>
+      <c r="K1188">
+        <v>3</v>
+      </c>
+      <c r="L1188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1189">
+        <v>2019</v>
+      </c>
+      <c r="B1189">
+        <v>363</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1189">
+        <v>4</v>
+      </c>
+      <c r="E1189">
+        <v>4</v>
+      </c>
+      <c r="F1189">
+        <v>3</v>
+      </c>
+      <c r="G1189">
+        <v>3</v>
+      </c>
+      <c r="H1189">
+        <v>6</v>
+      </c>
+      <c r="I1189">
+        <v>4</v>
+      </c>
+      <c r="J1189">
+        <v>3</v>
+      </c>
+      <c r="K1189">
+        <v>6</v>
+      </c>
+      <c r="L1189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1190">
+        <v>2019</v>
+      </c>
+      <c r="B1190">
+        <v>363</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1190">
+        <v>3</v>
+      </c>
+      <c r="E1190">
+        <v>3</v>
+      </c>
+      <c r="F1190">
+        <v>4</v>
+      </c>
+      <c r="G1190">
+        <v>5</v>
+      </c>
+      <c r="H1190">
+        <v>3</v>
+      </c>
+      <c r="I1190">
+        <v>3</v>
+      </c>
+      <c r="J1190">
+        <v>2</v>
+      </c>
+      <c r="K1190">
+        <v>4</v>
+      </c>
+      <c r="L1190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1191">
+        <v>2019</v>
+      </c>
+      <c r="B1191">
+        <v>364</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1191">
+        <v>2</v>
+      </c>
+      <c r="E1191">
+        <v>3</v>
+      </c>
+      <c r="F1191">
+        <v>3</v>
+      </c>
+      <c r="G1191">
+        <v>3</v>
+      </c>
+      <c r="H1191">
+        <v>5</v>
+      </c>
+      <c r="I1191">
+        <v>4</v>
+      </c>
+      <c r="J1191">
+        <v>3</v>
+      </c>
+      <c r="K1191">
+        <v>4</v>
+      </c>
+      <c r="L1191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1192">
+        <v>2019</v>
+      </c>
+      <c r="B1192">
+        <v>364</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1192">
+        <v>3</v>
+      </c>
+      <c r="E1192">
+        <v>2</v>
+      </c>
+      <c r="F1192">
+        <v>2</v>
+      </c>
+      <c r="G1192">
+        <v>5</v>
+      </c>
+      <c r="H1192">
+        <v>5</v>
+      </c>
+      <c r="I1192">
+        <v>4</v>
+      </c>
+      <c r="J1192">
+        <v>4</v>
+      </c>
+      <c r="K1192">
+        <v>4</v>
+      </c>
+      <c r="L1192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1193">
+        <v>2019</v>
+      </c>
+      <c r="B1193">
+        <v>364</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1193">
+        <v>4</v>
+      </c>
+      <c r="E1193">
+        <v>3</v>
+      </c>
+      <c r="F1193">
+        <v>3</v>
+      </c>
+      <c r="G1193">
+        <v>4</v>
+      </c>
+      <c r="H1193">
+        <v>4</v>
+      </c>
+      <c r="I1193">
+        <v>4</v>
+      </c>
+      <c r="J1193">
+        <v>4</v>
+      </c>
+      <c r="K1193">
+        <v>4</v>
+      </c>
+      <c r="L1193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1194">
+        <v>2019</v>
+      </c>
+      <c r="B1194">
+        <v>364</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1194">
+        <v>6</v>
+      </c>
+      <c r="E1194">
+        <v>5</v>
+      </c>
+      <c r="F1194">
+        <v>3</v>
+      </c>
+      <c r="G1194">
+        <v>5</v>
+      </c>
+      <c r="H1194">
+        <v>5</v>
+      </c>
+      <c r="I1194">
+        <v>4</v>
+      </c>
+      <c r="J1194">
+        <v>4</v>
+      </c>
+      <c r="K1194">
+        <v>4</v>
+      </c>
+      <c r="L1194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1195">
+        <v>2019</v>
+      </c>
+      <c r="B1195">
+        <v>365</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1195">
+        <v>5</v>
+      </c>
+      <c r="E1195">
+        <v>2</v>
+      </c>
+      <c r="F1195">
+        <v>3</v>
+      </c>
+      <c r="G1195">
+        <v>4</v>
+      </c>
+      <c r="H1195">
+        <v>5</v>
+      </c>
+      <c r="I1195">
+        <v>4</v>
+      </c>
+      <c r="J1195">
+        <v>5</v>
+      </c>
+      <c r="K1195">
+        <v>6</v>
+      </c>
+      <c r="L1195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1196">
+        <v>2019</v>
+      </c>
+      <c r="B1196">
+        <v>365</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1196">
+        <v>4</v>
+      </c>
+      <c r="E1196">
+        <v>4</v>
+      </c>
+      <c r="F1196">
+        <v>3</v>
+      </c>
+      <c r="G1196">
+        <v>5</v>
+      </c>
+      <c r="H1196">
+        <v>5</v>
+      </c>
+      <c r="I1196">
+        <v>6</v>
+      </c>
+      <c r="J1196">
+        <v>4</v>
+      </c>
+      <c r="K1196">
+        <v>6</v>
+      </c>
+      <c r="L1196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1197">
+        <v>2019</v>
+      </c>
+      <c r="B1197">
+        <v>366</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1197">
+        <v>4</v>
+      </c>
+      <c r="E1197">
+        <v>3</v>
+      </c>
+      <c r="F1197">
+        <v>4</v>
+      </c>
+      <c r="G1197">
+        <v>3</v>
+      </c>
+      <c r="H1197">
+        <v>5</v>
+      </c>
+      <c r="I1197">
+        <v>5</v>
+      </c>
+      <c r="J1197">
+        <v>3</v>
+      </c>
+      <c r="K1197">
+        <v>4</v>
+      </c>
+      <c r="L1197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1198">
+        <v>2019</v>
+      </c>
+      <c r="B1198">
+        <v>366</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1198">
+        <v>6</v>
+      </c>
+      <c r="E1198">
+        <v>5</v>
+      </c>
+      <c r="F1198">
+        <v>5</v>
+      </c>
+      <c r="G1198">
+        <v>6</v>
+      </c>
+      <c r="H1198">
+        <v>6</v>
+      </c>
+      <c r="I1198">
+        <v>5</v>
+      </c>
+      <c r="J1198">
+        <v>3</v>
+      </c>
+      <c r="K1198">
+        <v>6</v>
+      </c>
+      <c r="L1198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1199">
+        <v>2019</v>
+      </c>
+      <c r="B1199">
+        <v>366</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1199">
+        <v>6</v>
+      </c>
+      <c r="E1199">
+        <v>3</v>
+      </c>
+      <c r="F1199">
+        <v>5</v>
+      </c>
+      <c r="G1199">
+        <v>4</v>
+      </c>
+      <c r="H1199">
+        <v>4</v>
+      </c>
+      <c r="I1199">
+        <v>3</v>
+      </c>
+      <c r="J1199">
+        <v>4</v>
+      </c>
+      <c r="K1199">
+        <v>6</v>
+      </c>
+      <c r="L1199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1200">
+        <v>2019</v>
+      </c>
+      <c r="B1200">
+        <v>366</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1200">
+        <v>3</v>
+      </c>
+      <c r="E1200">
+        <v>3</v>
+      </c>
+      <c r="F1200">
+        <v>3</v>
+      </c>
+      <c r="G1200">
+        <v>5</v>
+      </c>
+      <c r="H1200">
+        <v>6</v>
+      </c>
+      <c r="I1200">
+        <v>3</v>
+      </c>
+      <c r="J1200">
+        <v>5</v>
+      </c>
+      <c r="K1200">
+        <v>5</v>
+      </c>
+      <c r="L1200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1201">
+        <v>2019</v>
+      </c>
+      <c r="B1201">
+        <v>366</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1201">
+        <v>5</v>
+      </c>
+      <c r="E1201">
+        <v>3</v>
+      </c>
+      <c r="F1201">
+        <v>3</v>
+      </c>
+      <c r="G1201">
+        <v>3</v>
+      </c>
+      <c r="H1201">
+        <v>5</v>
+      </c>
+      <c r="I1201">
+        <v>3</v>
+      </c>
+      <c r="J1201">
+        <v>3</v>
+      </c>
+      <c r="K1201">
+        <v>4</v>
+      </c>
+      <c r="L1201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1202">
+        <v>2020</v>
+      </c>
+      <c r="B1202">
+        <v>367</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1202">
+        <v>2</v>
+      </c>
+      <c r="E1202">
+        <v>3</v>
+      </c>
+      <c r="F1202">
+        <v>5</v>
+      </c>
+      <c r="G1202">
+        <v>5</v>
+      </c>
+      <c r="H1202">
+        <v>4</v>
+      </c>
+      <c r="I1202">
+        <v>2</v>
+      </c>
+      <c r="J1202">
+        <v>4</v>
+      </c>
+      <c r="K1202">
+        <v>4</v>
+      </c>
+      <c r="L1202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1203">
+        <v>2020</v>
+      </c>
+      <c r="B1203">
+        <v>367</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1203">
+        <v>4</v>
+      </c>
+      <c r="E1203">
+        <v>3</v>
+      </c>
+      <c r="F1203">
+        <v>4</v>
+      </c>
+      <c r="G1203">
+        <v>4</v>
+      </c>
+      <c r="H1203">
+        <v>5</v>
+      </c>
+      <c r="I1203">
+        <v>5</v>
+      </c>
+      <c r="J1203">
+        <v>3</v>
+      </c>
+      <c r="K1203">
+        <v>3</v>
+      </c>
+      <c r="L1203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1204">
+        <v>2020</v>
+      </c>
+      <c r="B1204">
+        <v>368</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1204">
+        <v>4</v>
+      </c>
+      <c r="E1204">
+        <v>5</v>
+      </c>
+      <c r="F1204">
+        <v>3</v>
+      </c>
+      <c r="G1204">
+        <v>6</v>
+      </c>
+      <c r="H1204">
+        <v>4</v>
+      </c>
+      <c r="I1204">
+        <v>4</v>
+      </c>
+      <c r="J1204">
+        <v>4</v>
+      </c>
+      <c r="K1204">
+        <v>3</v>
+      </c>
+      <c r="L1204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1205">
+        <v>2020</v>
+      </c>
+      <c r="B1205">
+        <v>368</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1205">
+        <v>3</v>
+      </c>
+      <c r="E1205">
+        <v>3</v>
+      </c>
+      <c r="F1205">
+        <v>2</v>
+      </c>
+      <c r="G1205">
+        <v>4</v>
+      </c>
+      <c r="H1205">
+        <v>3</v>
+      </c>
+      <c r="I1205">
+        <v>4</v>
+      </c>
+      <c r="J1205">
+        <v>3</v>
+      </c>
+      <c r="K1205">
+        <v>4</v>
+      </c>
+      <c r="L1205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1206">
+        <v>2020</v>
+      </c>
+      <c r="B1206">
+        <v>369</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1206">
+        <v>3</v>
+      </c>
+      <c r="E1206">
+        <v>3</v>
+      </c>
+      <c r="F1206">
+        <v>4</v>
+      </c>
+      <c r="G1206">
+        <v>3</v>
+      </c>
+      <c r="H1206">
+        <v>4</v>
+      </c>
+      <c r="I1206">
+        <v>4</v>
+      </c>
+      <c r="J1206">
+        <v>3</v>
+      </c>
+      <c r="K1206">
+        <v>3</v>
+      </c>
+      <c r="L1206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1207">
+        <v>2020</v>
+      </c>
+      <c r="B1207">
+        <v>369</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1207">
+        <v>4</v>
+      </c>
+      <c r="E1207">
+        <v>3</v>
+      </c>
+      <c r="F1207">
+        <v>5</v>
+      </c>
+      <c r="G1207">
+        <v>4</v>
+      </c>
+      <c r="H1207">
+        <v>6</v>
+      </c>
+      <c r="I1207">
+        <v>3</v>
+      </c>
+      <c r="J1207">
+        <v>3</v>
+      </c>
+      <c r="K1207">
+        <v>3</v>
+      </c>
+      <c r="L1207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1208">
+        <v>2020</v>
+      </c>
+      <c r="B1208">
+        <v>370</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1208">
+        <v>3</v>
+      </c>
+      <c r="E1208">
+        <v>2</v>
+      </c>
+      <c r="F1208">
+        <v>4</v>
+      </c>
+      <c r="G1208">
+        <v>5</v>
+      </c>
+      <c r="H1208">
+        <v>3</v>
+      </c>
+      <c r="I1208">
+        <v>5</v>
+      </c>
+      <c r="J1208">
+        <v>2</v>
+      </c>
+      <c r="K1208">
+        <v>4</v>
+      </c>
+      <c r="L1208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1209">
+        <v>2020</v>
+      </c>
+      <c r="B1209">
+        <v>370</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1209">
+        <v>3</v>
+      </c>
+      <c r="E1209">
+        <v>2</v>
+      </c>
+      <c r="F1209">
+        <v>4</v>
+      </c>
+      <c r="G1209">
+        <v>5</v>
+      </c>
+      <c r="H1209">
+        <v>3</v>
+      </c>
+      <c r="I1209">
+        <v>5</v>
+      </c>
+      <c r="J1209">
+        <v>2</v>
+      </c>
+      <c r="K1209">
+        <v>4</v>
+      </c>
+      <c r="L1209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1210">
+        <v>2020</v>
+      </c>
+      <c r="B1210">
+        <v>371</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1210">
+        <v>2</v>
+      </c>
+      <c r="E1210">
+        <v>2</v>
+      </c>
+      <c r="F1210">
+        <v>4</v>
+      </c>
+      <c r="G1210">
+        <v>3</v>
+      </c>
+      <c r="H1210">
+        <v>4</v>
+      </c>
+      <c r="I1210">
+        <v>4</v>
+      </c>
+      <c r="J1210">
+        <v>3</v>
+      </c>
+      <c r="K1210">
+        <v>4</v>
+      </c>
+      <c r="L1210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1211">
+        <v>2020</v>
+      </c>
+      <c r="B1211">
+        <v>371</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1211">
+        <v>2</v>
+      </c>
+      <c r="E1211">
+        <v>3</v>
+      </c>
+      <c r="F1211">
+        <v>4</v>
+      </c>
+      <c r="G1211">
+        <v>4</v>
+      </c>
+      <c r="H1211">
+        <v>4</v>
+      </c>
+      <c r="I1211">
+        <v>4</v>
+      </c>
+      <c r="J1211">
+        <v>4</v>
+      </c>
+      <c r="K1211">
+        <v>3</v>
+      </c>
+      <c r="L1211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1212">
+        <v>2020</v>
+      </c>
+      <c r="B1212">
+        <v>372</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1212">
+        <v>3</v>
+      </c>
+      <c r="E1212">
+        <v>3</v>
+      </c>
+      <c r="F1212">
+        <v>4</v>
+      </c>
+      <c r="G1212">
+        <v>4</v>
+      </c>
+      <c r="H1212">
+        <v>3</v>
+      </c>
+      <c r="I1212">
+        <v>3</v>
+      </c>
+      <c r="J1212">
+        <v>4</v>
+      </c>
+      <c r="K1212">
+        <v>4</v>
+      </c>
+      <c r="L1212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1213">
+        <v>2020</v>
+      </c>
+      <c r="B1213">
+        <v>372</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1213">
+        <v>3</v>
+      </c>
+      <c r="E1213">
+        <v>4</v>
+      </c>
+      <c r="F1213">
+        <v>4</v>
+      </c>
+      <c r="G1213">
+        <v>5</v>
+      </c>
+      <c r="H1213">
+        <v>2</v>
+      </c>
+      <c r="I1213">
+        <v>5</v>
+      </c>
+      <c r="J1213">
+        <v>4</v>
+      </c>
+      <c r="K1213">
+        <v>3</v>
+      </c>
+      <c r="L1213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1214">
+        <v>2020</v>
+      </c>
+      <c r="B1214">
+        <v>373</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1214">
+        <v>3</v>
+      </c>
+      <c r="E1214">
+        <v>2</v>
+      </c>
+      <c r="F1214">
+        <v>3</v>
+      </c>
+      <c r="G1214">
+        <v>4</v>
+      </c>
+      <c r="H1214">
+        <v>4</v>
+      </c>
+      <c r="I1214">
+        <v>5</v>
+      </c>
+      <c r="J1214">
+        <v>4</v>
+      </c>
+      <c r="K1214">
+        <v>3</v>
+      </c>
+      <c r="L1214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1215">
+        <v>2020</v>
+      </c>
+      <c r="B1215">
+        <v>373</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1215">
+        <v>2</v>
+      </c>
+      <c r="E1215">
+        <v>2</v>
+      </c>
+      <c r="F1215">
+        <v>5</v>
+      </c>
+      <c r="G1215">
+        <v>4</v>
+      </c>
+      <c r="H1215">
+        <v>5</v>
+      </c>
+      <c r="I1215">
+        <v>4</v>
+      </c>
+      <c r="J1215">
+        <v>4</v>
+      </c>
+      <c r="K1215">
+        <v>3</v>
+      </c>
+      <c r="L1215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1216">
+        <v>2020</v>
+      </c>
+      <c r="B1216">
+        <v>374</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1216">
+        <v>3</v>
+      </c>
+      <c r="E1216">
+        <v>3</v>
+      </c>
+      <c r="F1216">
+        <v>3</v>
+      </c>
+      <c r="G1216">
+        <v>2</v>
+      </c>
+      <c r="H1216">
+        <v>4</v>
+      </c>
+      <c r="I1216">
+        <v>4</v>
+      </c>
+      <c r="J1216">
+        <v>6</v>
+      </c>
+      <c r="K1216">
+        <v>6</v>
+      </c>
+      <c r="L1216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1217">
+        <v>2020</v>
+      </c>
+      <c r="B1217">
+        <v>374</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1217">
+        <v>3</v>
+      </c>
+      <c r="E1217">
+        <v>2</v>
+      </c>
+      <c r="F1217">
+        <v>6</v>
+      </c>
+      <c r="G1217">
+        <v>5</v>
+      </c>
+      <c r="H1217">
+        <v>5</v>
+      </c>
+      <c r="I1217">
+        <v>4</v>
+      </c>
+      <c r="J1217">
+        <v>4</v>
+      </c>
+      <c r="K1217">
+        <v>2</v>
+      </c>
+      <c r="L1217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1218">
+        <v>2020</v>
+      </c>
+      <c r="B1218">
+        <v>375</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1218">
+        <v>6</v>
+      </c>
+      <c r="E1218">
+        <v>4</v>
+      </c>
+      <c r="F1218">
+        <v>2</v>
+      </c>
+      <c r="G1218">
+        <v>4</v>
+      </c>
+      <c r="H1218">
+        <v>4</v>
+      </c>
+      <c r="I1218">
+        <v>5</v>
+      </c>
+      <c r="J1218">
+        <v>4</v>
+      </c>
+      <c r="K1218">
+        <v>6</v>
+      </c>
+      <c r="L1218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1219">
+        <v>2020</v>
+      </c>
+      <c r="B1219">
+        <v>375</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1219">
+        <v>4</v>
+      </c>
+      <c r="E1219">
+        <v>2</v>
+      </c>
+      <c r="F1219">
+        <v>4</v>
+      </c>
+      <c r="G1219">
+        <v>6</v>
+      </c>
+      <c r="H1219">
+        <v>4</v>
+      </c>
+      <c r="I1219">
+        <v>4</v>
+      </c>
+      <c r="J1219">
+        <v>2</v>
+      </c>
+      <c r="K1219">
+        <v>4</v>
+      </c>
+      <c r="L1219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1220">
+        <v>2020</v>
+      </c>
+      <c r="B1220">
+        <v>375</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1220">
+        <v>6</v>
+      </c>
+      <c r="E1220">
+        <v>6</v>
+      </c>
+      <c r="F1220">
+        <v>5</v>
+      </c>
+      <c r="G1220">
+        <v>3</v>
+      </c>
+      <c r="H1220">
+        <v>6</v>
+      </c>
+      <c r="I1220">
+        <v>4</v>
+      </c>
+      <c r="J1220">
+        <v>5</v>
+      </c>
+      <c r="K1220">
+        <v>4</v>
+      </c>
+      <c r="L1220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1221">
+        <v>2020</v>
+      </c>
+      <c r="B1221">
+        <v>376</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1221">
+        <v>4</v>
+      </c>
+      <c r="E1221">
+        <v>3</v>
+      </c>
+      <c r="F1221">
+        <v>3</v>
+      </c>
+      <c r="G1221">
+        <v>4</v>
+      </c>
+      <c r="H1221">
+        <v>3</v>
+      </c>
+      <c r="I1221">
+        <v>5</v>
+      </c>
+      <c r="J1221">
+        <v>3</v>
+      </c>
+      <c r="K1221">
+        <v>4</v>
+      </c>
+      <c r="L1221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1222">
+        <v>2020</v>
+      </c>
+      <c r="B1222">
+        <v>376</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1222">
+        <v>4</v>
+      </c>
+      <c r="E1222">
+        <v>2</v>
+      </c>
+      <c r="F1222">
+        <v>3</v>
+      </c>
+      <c r="G1222">
+        <v>3</v>
+      </c>
+      <c r="H1222">
+        <v>5</v>
+      </c>
+      <c r="I1222">
+        <v>3</v>
+      </c>
+      <c r="J1222">
+        <v>3</v>
+      </c>
+      <c r="K1222">
+        <v>6</v>
+      </c>
+      <c r="L1222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1223">
+        <v>2020</v>
+      </c>
+      <c r="B1223">
+        <v>376</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1223">
+        <v>6</v>
+      </c>
+      <c r="E1223">
+        <v>4</v>
+      </c>
+      <c r="F1223">
+        <v>4</v>
+      </c>
+      <c r="G1223">
+        <v>5</v>
+      </c>
+      <c r="H1223">
+        <v>4</v>
+      </c>
+      <c r="I1223">
+        <v>6</v>
+      </c>
+      <c r="J1223">
+        <v>4</v>
+      </c>
+      <c r="K1223">
+        <v>6</v>
+      </c>
+      <c r="L1223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1224">
+        <v>2020</v>
+      </c>
+      <c r="B1224">
+        <v>376</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1224">
+        <v>6</v>
+      </c>
+      <c r="E1224">
+        <v>2</v>
+      </c>
+      <c r="F1224">
+        <v>3</v>
+      </c>
+      <c r="G1224">
+        <v>6</v>
+      </c>
+      <c r="H1224">
+        <v>6</v>
+      </c>
+      <c r="I1224">
+        <v>5</v>
+      </c>
+      <c r="J1224">
+        <v>4</v>
+      </c>
+      <c r="K1224">
+        <v>5</v>
+      </c>
+      <c r="L1224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1225">
+        <v>2020</v>
+      </c>
+      <c r="B1225">
+        <v>375</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1225">
+        <v>3</v>
+      </c>
+      <c r="E1225">
+        <v>3</v>
+      </c>
+      <c r="F1225">
+        <v>3</v>
+      </c>
+      <c r="G1225">
+        <v>3</v>
+      </c>
+      <c r="H1225">
+        <v>3</v>
+      </c>
+      <c r="I1225">
+        <v>3</v>
+      </c>
+      <c r="J1225">
+        <v>4</v>
+      </c>
+      <c r="K1225">
+        <v>4</v>
+      </c>
+      <c r="L1225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1226">
+        <v>2020</v>
+      </c>
+      <c r="B1226">
+        <v>375</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1226">
+        <v>3</v>
+      </c>
+      <c r="E1226">
+        <v>3</v>
+      </c>
+      <c r="F1226">
+        <v>4</v>
+      </c>
+      <c r="G1226">
+        <v>5</v>
+      </c>
+      <c r="H1226">
+        <v>6</v>
+      </c>
+      <c r="I1226">
+        <v>4</v>
+      </c>
+      <c r="J1226">
+        <v>4</v>
+      </c>
+      <c r="K1226">
+        <v>3</v>
+      </c>
+      <c r="L1226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1227">
+        <v>2020</v>
+      </c>
+      <c r="B1227">
+        <v>375</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1227">
+        <v>2</v>
+      </c>
+      <c r="E1227">
+        <v>1</v>
+      </c>
+      <c r="F1227">
+        <v>3</v>
+      </c>
+      <c r="G1227">
+        <v>5</v>
+      </c>
+      <c r="H1227">
+        <v>4</v>
+      </c>
+      <c r="I1227">
+        <v>5</v>
+      </c>
+      <c r="J1227">
+        <v>4</v>
+      </c>
+      <c r="K1227">
+        <v>3</v>
+      </c>
+      <c r="L1227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1228">
+        <v>2020</v>
+      </c>
+      <c r="B1228">
+        <v>375</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1228">
+        <v>6</v>
+      </c>
+      <c r="E1228">
+        <v>3</v>
+      </c>
+      <c r="F1228">
+        <v>5</v>
+      </c>
+      <c r="G1228">
+        <v>5</v>
+      </c>
+      <c r="H1228">
+        <v>4</v>
+      </c>
+      <c r="I1228">
+        <v>4</v>
+      </c>
+      <c r="J1228">
+        <v>5</v>
+      </c>
+      <c r="K1228">
+        <v>5</v>
+      </c>
+      <c r="L1228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1229">
+        <v>2020</v>
+      </c>
+      <c r="B1229">
+        <v>376</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1229">
+        <v>4</v>
+      </c>
+      <c r="E1229">
+        <v>4</v>
+      </c>
+      <c r="F1229">
+        <v>6</v>
+      </c>
+      <c r="G1229">
+        <v>5</v>
+      </c>
+      <c r="H1229">
+        <v>6</v>
+      </c>
+      <c r="I1229">
+        <v>5</v>
+      </c>
+      <c r="J1229">
+        <v>5</v>
+      </c>
+      <c r="K1229">
+        <v>6</v>
+      </c>
+      <c r="L1229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1230">
+        <v>2020</v>
+      </c>
+      <c r="B1230">
+        <v>376</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1230">
+        <v>5</v>
+      </c>
+      <c r="E1230">
+        <v>3</v>
+      </c>
+      <c r="F1230">
+        <v>4</v>
+      </c>
+      <c r="G1230">
+        <v>4</v>
+      </c>
+      <c r="H1230">
+        <v>3</v>
+      </c>
+      <c r="I1230">
+        <v>4</v>
+      </c>
+      <c r="J1230">
+        <v>4</v>
+      </c>
+      <c r="K1230">
+        <v>5</v>
+      </c>
+      <c r="L1230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1231">
+        <v>2020</v>
+      </c>
+      <c r="B1231">
+        <v>376</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1231">
+        <v>4</v>
+      </c>
+      <c r="E1231">
+        <v>4</v>
+      </c>
+      <c r="F1231">
+        <v>5</v>
+      </c>
+      <c r="G1231">
+        <v>4</v>
+      </c>
+      <c r="H1231">
+        <v>6</v>
+      </c>
+      <c r="I1231">
+        <v>3</v>
+      </c>
+      <c r="J1231">
+        <v>5</v>
+      </c>
+      <c r="K1231">
+        <v>4</v>
+      </c>
+      <c r="L1231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1232">
+        <v>2020</v>
+      </c>
+      <c r="B1232">
+        <v>376</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1232">
+        <v>4</v>
+      </c>
+      <c r="E1232">
+        <v>4</v>
+      </c>
+      <c r="F1232">
+        <v>3</v>
+      </c>
+      <c r="G1232">
+        <v>5</v>
+      </c>
+      <c r="H1232">
+        <v>6</v>
+      </c>
+      <c r="I1232">
+        <v>4</v>
+      </c>
+      <c r="J1232">
+        <v>4</v>
+      </c>
+      <c r="K1232">
+        <v>4</v>
+      </c>
+      <c r="L1232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1233">
+        <v>2020</v>
+      </c>
+      <c r="B1233">
+        <v>377</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1233">
+        <v>3</v>
+      </c>
+      <c r="E1233">
+        <v>3</v>
+      </c>
+      <c r="F1233">
+        <v>3</v>
+      </c>
+      <c r="G1233">
+        <v>3</v>
+      </c>
+      <c r="H1233">
+        <v>4</v>
+      </c>
+      <c r="I1233">
+        <v>3</v>
+      </c>
+      <c r="J1233">
+        <v>4</v>
+      </c>
+      <c r="K1233">
+        <v>4</v>
+      </c>
+      <c r="L1233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1234">
+        <v>2020</v>
+      </c>
+      <c r="B1234">
+        <v>377</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1234">
+        <v>3</v>
+      </c>
+      <c r="E1234">
+        <v>4</v>
+      </c>
+      <c r="F1234">
+        <v>4</v>
+      </c>
+      <c r="G1234">
+        <v>3</v>
+      </c>
+      <c r="H1234">
+        <v>4</v>
+      </c>
+      <c r="I1234">
+        <v>3</v>
+      </c>
+      <c r="J1234">
+        <v>3</v>
+      </c>
+      <c r="K1234">
+        <v>4</v>
+      </c>
+      <c r="L1234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1235">
+        <v>2020</v>
+      </c>
+      <c r="B1235">
+        <v>378</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1235">
+        <v>3</v>
+      </c>
+      <c r="E1235">
+        <v>3</v>
+      </c>
+      <c r="F1235">
+        <v>3</v>
+      </c>
+      <c r="G1235">
+        <v>2</v>
+      </c>
+      <c r="H1235">
+        <v>4</v>
+      </c>
+      <c r="I1235">
+        <v>3</v>
+      </c>
+      <c r="J1235">
+        <v>5</v>
+      </c>
+      <c r="K1235">
+        <v>4</v>
+      </c>
+      <c r="L1235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1236">
+        <v>2020</v>
+      </c>
+      <c r="B1236">
+        <v>378</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1236">
+        <v>3</v>
+      </c>
+      <c r="E1236">
+        <v>4</v>
+      </c>
+      <c r="F1236">
+        <v>2</v>
+      </c>
+      <c r="G1236">
+        <v>3</v>
+      </c>
+      <c r="H1236">
+        <v>3</v>
+      </c>
+      <c r="I1236">
+        <v>3</v>
+      </c>
+      <c r="J1236">
+        <v>3</v>
+      </c>
+      <c r="K1236">
+        <v>3</v>
+      </c>
+      <c r="L1236">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
